--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arc100.sharepoint.com/sites/msteams_059e6f/Shared Documents/20_基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{2AB90ACF-94C6-48FE-AB2C-51726446EADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C85DD69-20E8-4C21-948D-002A7E6074E4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A84FCB-E765-437F-B88C-308FD00015A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="2" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
   <si>
     <t>CURD図</t>
     <rPh sb="4" eb="5">
@@ -360,6 +361,89 @@
     <t>横山</t>
     <rPh sb="0" eb="2">
       <t>ヨコヤマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改訂履歴</t>
+  </si>
+  <si>
+    <t>項番</t>
+  </si>
+  <si>
+    <t>改訂日</t>
+  </si>
+  <si>
+    <t>改訂者</t>
+  </si>
+  <si>
+    <t>改訂箇所</t>
+    <rPh sb="0" eb="4">
+      <t>カイテイカショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉新</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシアラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤怠状況詳細画面,打刻テーブルのCRUD</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ダコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Cを追加しました。（打刻データがないときに変更申請を行う場合に打刻データを追加するため）</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ヘンコウシンセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -368,7 +452,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,8 +516,37 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +772,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,8 +780,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,53 +849,87 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{42209793-9127-4AD8-A872-9629A40B04F4}"/>
     <cellStyle name="標準 3" xfId="1" xr:uid="{E73519A6-3ECA-4667-81EA-165D58F781E7}"/>
+    <cellStyle name="標準_ﾌﾟﾛｸﾞﾗﾑ一覧" xfId="3" xr:uid="{80E4B5FC-203D-495C-822B-38DB4E049401}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1162,26 +1319,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329F0B0-6EDD-4CDC-B7DA-D1178C66E49A}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AK4" sqref="AK4"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1"/>
-    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.69921875" style="1" customWidth="1"/>
-    <col min="16" max="23" width="3.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="39" width="3.69921875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="2.69921875" style="1"/>
+    <col min="12" max="15" width="3.75" style="1" customWidth="1"/>
+    <col min="16" max="23" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="39" width="3.75" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1402,7 @@
       <c r="BG1" s="15"/>
       <c r="BH1" s="15"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1261,45 +1418,45 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="24" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="30" t="s">
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="27">
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="28">
         <f ca="1">NOW()</f>
-        <v>45449.409708796295</v>
-      </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="29"/>
+        <v>45449.5901443287</v>
+      </c>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1315,109 +1472,109 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="24" t="s">
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="24" t="s">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="35"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="27"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22" t="s">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="23" t="s">
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="22" t="s">
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22" t="s">
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22" t="s">
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1617,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1717,7 +1874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1836,8 +1993,8 @@
       <c r="G11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>22</v>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>26</v>
@@ -1917,7 +2074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2017,7 +2174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2114,7 +2271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2214,12 +2371,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2227,7 +2384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2235,29 +2392,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="L2:O2"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="AF6:AI6"/>
@@ -2267,6 +2413,17 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="T3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2275,7 +2432,1461 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60A254-C9D9-4592-A9CA-6C6633460CD1}">
+  <dimension ref="A1:BB22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="2.75" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="38"/>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42">
+        <v>45447</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="41"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42">
+        <v>45449</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="48"/>
+      <c r="AR4" s="48"/>
+      <c r="AS4" s="48"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="48"/>
+      <c r="AV4" s="48"/>
+      <c r="AW4" s="48"/>
+      <c r="AX4" s="48"/>
+      <c r="AY4" s="48"/>
+      <c r="AZ4" s="48"/>
+      <c r="BA4" s="48"/>
+      <c r="BB4" s="41"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="48"/>
+      <c r="AR5" s="48"/>
+      <c r="AS5" s="48"/>
+      <c r="AT5" s="48"/>
+      <c r="AU5" s="48"/>
+      <c r="AV5" s="48"/>
+      <c r="AW5" s="48"/>
+      <c r="AX5" s="48"/>
+      <c r="AY5" s="48"/>
+      <c r="AZ5" s="48"/>
+      <c r="BA5" s="48"/>
+      <c r="BB5" s="41"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="48"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="48"/>
+      <c r="AO6" s="48"/>
+      <c r="AP6" s="48"/>
+      <c r="AQ6" s="48"/>
+      <c r="AR6" s="48"/>
+      <c r="AS6" s="48"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="48"/>
+      <c r="AV6" s="48"/>
+      <c r="AW6" s="48"/>
+      <c r="AX6" s="48"/>
+      <c r="AY6" s="48"/>
+      <c r="AZ6" s="48"/>
+      <c r="BA6" s="48"/>
+      <c r="BB6" s="41"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="41"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="48"/>
+      <c r="AN8" s="48"/>
+      <c r="AO8" s="48"/>
+      <c r="AP8" s="48"/>
+      <c r="AQ8" s="48"/>
+      <c r="AR8" s="48"/>
+      <c r="AS8" s="48"/>
+      <c r="AT8" s="48"/>
+      <c r="AU8" s="48"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="48"/>
+      <c r="AX8" s="48"/>
+      <c r="AY8" s="48"/>
+      <c r="AZ8" s="48"/>
+      <c r="BA8" s="48"/>
+      <c r="BB8" s="41"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="48"/>
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="48"/>
+      <c r="AG9" s="48"/>
+      <c r="AH9" s="48"/>
+      <c r="AI9" s="48"/>
+      <c r="AJ9" s="48"/>
+      <c r="AK9" s="48"/>
+      <c r="AL9" s="48"/>
+      <c r="AM9" s="48"/>
+      <c r="AN9" s="48"/>
+      <c r="AO9" s="48"/>
+      <c r="AP9" s="48"/>
+      <c r="AQ9" s="48"/>
+      <c r="AR9" s="48"/>
+      <c r="AS9" s="48"/>
+      <c r="AT9" s="48"/>
+      <c r="AU9" s="48"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="48"/>
+      <c r="AX9" s="48"/>
+      <c r="AY9" s="48"/>
+      <c r="AZ9" s="48"/>
+      <c r="BA9" s="48"/>
+      <c r="BB9" s="41"/>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="40"/>
+      <c r="AB10" s="48"/>
+      <c r="AC10" s="48"/>
+      <c r="AD10" s="48"/>
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="48"/>
+      <c r="AG10" s="48"/>
+      <c r="AH10" s="48"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="48"/>
+      <c r="BB10" s="41"/>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="40"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="48"/>
+      <c r="AG11" s="48"/>
+      <c r="AH11" s="48"/>
+      <c r="AI11" s="48"/>
+      <c r="AJ11" s="48"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="48"/>
+      <c r="AN11" s="48"/>
+      <c r="AO11" s="48"/>
+      <c r="AP11" s="48"/>
+      <c r="AQ11" s="48"/>
+      <c r="AR11" s="48"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="48"/>
+      <c r="AX11" s="48"/>
+      <c r="AY11" s="48"/>
+      <c r="AZ11" s="48"/>
+      <c r="BA11" s="48"/>
+      <c r="BB11" s="41"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="40"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
+      <c r="AP12" s="48"/>
+      <c r="AQ12" s="48"/>
+      <c r="AR12" s="48"/>
+      <c r="AS12" s="48"/>
+      <c r="AT12" s="48"/>
+      <c r="AU12" s="48"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
+      <c r="BB12" s="41"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="48"/>
+      <c r="AK13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="48"/>
+      <c r="AN13" s="48"/>
+      <c r="AO13" s="48"/>
+      <c r="AP13" s="48"/>
+      <c r="AQ13" s="48"/>
+      <c r="AR13" s="48"/>
+      <c r="AS13" s="48"/>
+      <c r="AT13" s="48"/>
+      <c r="AU13" s="48"/>
+      <c r="AV13" s="48"/>
+      <c r="AW13" s="48"/>
+      <c r="AX13" s="48"/>
+      <c r="AY13" s="48"/>
+      <c r="AZ13" s="48"/>
+      <c r="BA13" s="48"/>
+      <c r="BB13" s="41"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="41"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="40"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48"/>
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="41"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48"/>
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="41"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="48"/>
+      <c r="BB17" s="41"/>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="48"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="48"/>
+      <c r="AC18" s="48"/>
+      <c r="AD18" s="48"/>
+      <c r="AE18" s="48"/>
+      <c r="AF18" s="48"/>
+      <c r="AG18" s="48"/>
+      <c r="AH18" s="48"/>
+      <c r="AI18" s="48"/>
+      <c r="AJ18" s="48"/>
+      <c r="AK18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="48"/>
+      <c r="AN18" s="48"/>
+      <c r="AO18" s="48"/>
+      <c r="AP18" s="48"/>
+      <c r="AQ18" s="48"/>
+      <c r="AR18" s="48"/>
+      <c r="AS18" s="48"/>
+      <c r="AT18" s="48"/>
+      <c r="AU18" s="48"/>
+      <c r="AV18" s="48"/>
+      <c r="AW18" s="48"/>
+      <c r="AX18" s="48"/>
+      <c r="AY18" s="48"/>
+      <c r="AZ18" s="48"/>
+      <c r="BA18" s="48"/>
+      <c r="BB18" s="41"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="48"/>
+      <c r="BB19" s="41"/>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="48"/>
+      <c r="AH20" s="48"/>
+      <c r="AI20" s="48"/>
+      <c r="AJ20" s="48"/>
+      <c r="AK20" s="48"/>
+      <c r="AL20" s="48"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="48"/>
+      <c r="AO20" s="48"/>
+      <c r="AP20" s="48"/>
+      <c r="AQ20" s="48"/>
+      <c r="AR20" s="48"/>
+      <c r="AS20" s="48"/>
+      <c r="AT20" s="48"/>
+      <c r="AU20" s="48"/>
+      <c r="AV20" s="48"/>
+      <c r="AW20" s="48"/>
+      <c r="AX20" s="48"/>
+      <c r="AY20" s="48"/>
+      <c r="AZ20" s="48"/>
+      <c r="BA20" s="48"/>
+      <c r="BB20" s="41"/>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="48"/>
+      <c r="AG21" s="48"/>
+      <c r="AH21" s="48"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="48"/>
+      <c r="AK21" s="48"/>
+      <c r="AL21" s="48"/>
+      <c r="AM21" s="48"/>
+      <c r="AN21" s="48"/>
+      <c r="AO21" s="48"/>
+      <c r="AP21" s="48"/>
+      <c r="AQ21" s="48"/>
+      <c r="AR21" s="48"/>
+      <c r="AS21" s="48"/>
+      <c r="AT21" s="48"/>
+      <c r="AU21" s="48"/>
+      <c r="AV21" s="48"/>
+      <c r="AW21" s="48"/>
+      <c r="AX21" s="48"/>
+      <c r="AY21" s="48"/>
+      <c r="AZ21" s="48"/>
+      <c r="BA21" s="48"/>
+      <c r="BB21" s="41"/>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="48"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="48"/>
+      <c r="AG22" s="48"/>
+      <c r="AH22" s="48"/>
+      <c r="AI22" s="48"/>
+      <c r="AJ22" s="48"/>
+      <c r="AK22" s="48"/>
+      <c r="AL22" s="48"/>
+      <c r="AM22" s="48"/>
+      <c r="AN22" s="48"/>
+      <c r="AO22" s="48"/>
+      <c r="AP22" s="48"/>
+      <c r="AQ22" s="48"/>
+      <c r="AR22" s="48"/>
+      <c r="AS22" s="48"/>
+      <c r="AT22" s="48"/>
+      <c r="AU22" s="48"/>
+      <c r="AV22" s="48"/>
+      <c r="AW22" s="48"/>
+      <c r="AX22" s="48"/>
+      <c r="AY22" s="48"/>
+      <c r="AZ22" s="48"/>
+      <c r="BA22" s="48"/>
+      <c r="BB22" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="105">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:Z22"/>
+    <mergeCell ref="AA22:BB22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:Z20"/>
+    <mergeCell ref="AA20:BB20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:Z21"/>
+    <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -2470,15 +4081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2491,6 +4093,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1B57F6-6115-4225-8541-8A02A498EE84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2505,14 +4115,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A84FCB-E765-437F-B88C-308FD00015A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F62CBE3-EF1B-4CA5-987C-B2C4D700F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="2" r:id="rId1"/>
@@ -453,7 +453,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -849,6 +849,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +867,24 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,33 +894,27 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,27 +924,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1319,26 +1319,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8329F0B0-6EDD-4CDC-B7DA-D1178C66E49A}">
   <dimension ref="A1:BH21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.75" style="1" customWidth="1"/>
-    <col min="16" max="23" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="39" width="3.75" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="2.75" style="1"/>
+    <col min="12" max="15" width="3.69921875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="3.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="39" width="3.69921875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="BG1" s="15"/>
       <c r="BH1" s="15"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1418,18 +1418,18 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="22" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="24"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="28" t="s">
         <v>48</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="AD2" s="33"/>
       <c r="AE2" s="28">
         <f ca="1">NOW()</f>
-        <v>45449.5901443287</v>
+        <v>45450.389105555558</v>
       </c>
       <c r="AF2" s="29"/>
       <c r="AG2" s="29"/>
@@ -1456,7 +1456,7 @@
       <c r="AJ2" s="29"/>
       <c r="AK2" s="30"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1472,109 +1472,109 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22" t="s">
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="22" t="s">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="27"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="36"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="35" t="s">
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="34" t="s">
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34" t="s">
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34" t="s">
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AK6" s="34"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="34"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2371,12 +2371,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2392,18 +2392,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="AF6:AI6"/>
@@ -2413,17 +2424,6 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="T3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,1335 +2436,1425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E60A254-C9D9-4592-A9CA-6C6633460CD1}">
   <dimension ref="A1:BB22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:M4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:Z4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="15"/>
+    <col min="1" max="16384" width="2.69921875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:54" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="37" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="37" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="37" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="38"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="48"/>
+      <c r="AQ2" s="48"/>
+      <c r="AR2" s="48"/>
+      <c r="AS2" s="48"/>
+      <c r="AT2" s="48"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="48"/>
+      <c r="BB2" s="47"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A3" s="37">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39">
         <v>45447</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="40" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
-      <c r="AE3" s="48"/>
-      <c r="AF3" s="48"/>
-      <c r="AG3" s="48"/>
-      <c r="AH3" s="48"/>
-      <c r="AI3" s="48"/>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
-      <c r="AR3" s="48"/>
-      <c r="AS3" s="48"/>
-      <c r="AT3" s="48"/>
-      <c r="AU3" s="48"/>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
-      <c r="BB3" s="41"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="38"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A4" s="37">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39">
         <v>45449</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="40" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="40" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="48"/>
-      <c r="AR4" s="48"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="48"/>
-      <c r="AV4" s="48"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="48"/>
-      <c r="AZ4" s="48"/>
-      <c r="BA4" s="48"/>
-      <c r="BB4" s="41"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="38"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="48"/>
-      <c r="AR5" s="48"/>
-      <c r="AS5" s="48"/>
-      <c r="AT5" s="48"/>
-      <c r="AU5" s="48"/>
-      <c r="AV5" s="48"/>
-      <c r="AW5" s="48"/>
-      <c r="AX5" s="48"/>
-      <c r="AY5" s="48"/>
-      <c r="AZ5" s="48"/>
-      <c r="BA5" s="48"/>
-      <c r="BB5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="45"/>
+      <c r="AG5" s="45"/>
+      <c r="AH5" s="45"/>
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45"/>
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="45"/>
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="45"/>
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45"/>
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="45"/>
+      <c r="AT5" s="45"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="45"/>
+      <c r="AW5" s="45"/>
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="45"/>
+      <c r="BB5" s="38"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A6" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
-      <c r="AJ6" s="48"/>
-      <c r="AK6" s="48"/>
-      <c r="AL6" s="48"/>
-      <c r="AM6" s="48"/>
-      <c r="AN6" s="48"/>
-      <c r="AO6" s="48"/>
-      <c r="AP6" s="48"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="48"/>
-      <c r="AS6" s="48"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="48"/>
-      <c r="AV6" s="48"/>
-      <c r="AW6" s="48"/>
-      <c r="AX6" s="48"/>
-      <c r="AY6" s="48"/>
-      <c r="AZ6" s="48"/>
-      <c r="BA6" s="48"/>
-      <c r="BB6" s="41"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
+      <c r="AL6" s="45"/>
+      <c r="AM6" s="45"/>
+      <c r="AN6" s="45"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="45"/>
+      <c r="AQ6" s="45"/>
+      <c r="AR6" s="45"/>
+      <c r="AS6" s="45"/>
+      <c r="AT6" s="45"/>
+      <c r="AU6" s="45"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="45"/>
+      <c r="AX6" s="45"/>
+      <c r="AY6" s="45"/>
+      <c r="AZ6" s="45"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="38"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="41"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="45"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="45"/>
+      <c r="AG7" s="45"/>
+      <c r="AH7" s="45"/>
+      <c r="AI7" s="45"/>
+      <c r="AJ7" s="45"/>
+      <c r="AK7" s="45"/>
+      <c r="AL7" s="45"/>
+      <c r="AM7" s="45"/>
+      <c r="AN7" s="45"/>
+      <c r="AO7" s="45"/>
+      <c r="AP7" s="45"/>
+      <c r="AQ7" s="45"/>
+      <c r="AR7" s="45"/>
+      <c r="AS7" s="45"/>
+      <c r="AT7" s="45"/>
+      <c r="AU7" s="45"/>
+      <c r="AV7" s="45"/>
+      <c r="AW7" s="45"/>
+      <c r="AX7" s="45"/>
+      <c r="AY7" s="45"/>
+      <c r="AZ7" s="45"/>
+      <c r="BA7" s="45"/>
+      <c r="BB7" s="38"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A8" s="37">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
-      <c r="AK8" s="48"/>
-      <c r="AL8" s="48"/>
-      <c r="AM8" s="48"/>
-      <c r="AN8" s="48"/>
-      <c r="AO8" s="48"/>
-      <c r="AP8" s="48"/>
-      <c r="AQ8" s="48"/>
-      <c r="AR8" s="48"/>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="48"/>
-      <c r="AU8" s="48"/>
-      <c r="AV8" s="48"/>
-      <c r="AW8" s="48"/>
-      <c r="AX8" s="48"/>
-      <c r="AY8" s="48"/>
-      <c r="AZ8" s="48"/>
-      <c r="BA8" s="48"/>
-      <c r="BB8" s="41"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
+      <c r="AM8" s="45"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+      <c r="AZ8" s="45"/>
+      <c r="BA8" s="45"/>
+      <c r="BB8" s="38"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A9" s="37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
-      <c r="AF9" s="48"/>
-      <c r="AG9" s="48"/>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="48"/>
-      <c r="AK9" s="48"/>
-      <c r="AL9" s="48"/>
-      <c r="AM9" s="48"/>
-      <c r="AN9" s="48"/>
-      <c r="AO9" s="48"/>
-      <c r="AP9" s="48"/>
-      <c r="AQ9" s="48"/>
-      <c r="AR9" s="48"/>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="48"/>
-      <c r="AU9" s="48"/>
-      <c r="AV9" s="48"/>
-      <c r="AW9" s="48"/>
-      <c r="AX9" s="48"/>
-      <c r="AY9" s="48"/>
-      <c r="AZ9" s="48"/>
-      <c r="BA9" s="48"/>
-      <c r="BB9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="45"/>
+      <c r="AL9" s="45"/>
+      <c r="AM9" s="45"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="45"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+      <c r="AZ9" s="45"/>
+      <c r="BA9" s="45"/>
+      <c r="BB9" s="38"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
-      <c r="AF10" s="48"/>
-      <c r="AG10" s="48"/>
-      <c r="AH10" s="48"/>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="48"/>
-      <c r="AL10" s="48"/>
-      <c r="AM10" s="48"/>
-      <c r="AN10" s="48"/>
-      <c r="AO10" s="48"/>
-      <c r="AP10" s="48"/>
-      <c r="AQ10" s="48"/>
-      <c r="AR10" s="48"/>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="48"/>
-      <c r="AU10" s="48"/>
-      <c r="AV10" s="48"/>
-      <c r="AW10" s="48"/>
-      <c r="AX10" s="48"/>
-      <c r="AY10" s="48"/>
-      <c r="AZ10" s="48"/>
-      <c r="BA10" s="48"/>
-      <c r="BB10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="45"/>
+      <c r="AG10" s="45"/>
+      <c r="AH10" s="45"/>
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="45"/>
+      <c r="AM10" s="45"/>
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="45"/>
+      <c r="AP10" s="45"/>
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="45"/>
+      <c r="AS10" s="45"/>
+      <c r="AT10" s="45"/>
+      <c r="AU10" s="45"/>
+      <c r="AV10" s="45"/>
+      <c r="AW10" s="45"/>
+      <c r="AX10" s="45"/>
+      <c r="AY10" s="45"/>
+      <c r="AZ10" s="45"/>
+      <c r="BA10" s="45"/>
+      <c r="BB10" s="38"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A11" s="37">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="41"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="45"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="45"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="45"/>
+      <c r="AP11" s="45"/>
+      <c r="AQ11" s="45"/>
+      <c r="AR11" s="45"/>
+      <c r="AS11" s="45"/>
+      <c r="AT11" s="45"/>
+      <c r="AU11" s="45"/>
+      <c r="AV11" s="45"/>
+      <c r="AW11" s="45"/>
+      <c r="AX11" s="45"/>
+      <c r="AY11" s="45"/>
+      <c r="AZ11" s="45"/>
+      <c r="BA11" s="45"/>
+      <c r="BB11" s="38"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A12" s="37">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
-      <c r="AP12" s="48"/>
-      <c r="AQ12" s="48"/>
-      <c r="AR12" s="48"/>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="48"/>
-      <c r="AU12" s="48"/>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
-      <c r="BB12" s="41"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="38"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45"/>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="38"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A14" s="37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="48"/>
-      <c r="AC14" s="48"/>
-      <c r="AD14" s="48"/>
-      <c r="AE14" s="48"/>
-      <c r="AF14" s="48"/>
-      <c r="AG14" s="48"/>
-      <c r="AH14" s="48"/>
-      <c r="AI14" s="48"/>
-      <c r="AJ14" s="48"/>
-      <c r="AK14" s="48"/>
-      <c r="AL14" s="48"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="48"/>
-      <c r="AO14" s="48"/>
-      <c r="AP14" s="48"/>
-      <c r="AQ14" s="48"/>
-      <c r="AR14" s="48"/>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="48"/>
-      <c r="AU14" s="48"/>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
-      <c r="BB14" s="41"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+      <c r="AM14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
+      <c r="AQ14" s="45"/>
+      <c r="AR14" s="45"/>
+      <c r="AS14" s="45"/>
+      <c r="AT14" s="45"/>
+      <c r="AU14" s="45"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
+      <c r="BB14" s="38"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A15" s="37">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48"/>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48"/>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+      <c r="AM15" s="45"/>
+      <c r="AN15" s="45"/>
+      <c r="AO15" s="45"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="45"/>
+      <c r="AR15" s="45"/>
+      <c r="AS15" s="45"/>
+      <c r="AT15" s="45"/>
+      <c r="AU15" s="45"/>
+      <c r="AV15" s="45"/>
+      <c r="AW15" s="45"/>
+      <c r="AX15" s="45"/>
+      <c r="AY15" s="45"/>
+      <c r="AZ15" s="45"/>
+      <c r="BA15" s="45"/>
+      <c r="BB15" s="38"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48"/>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48"/>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="41"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+      <c r="AM16" s="45"/>
+      <c r="AN16" s="45"/>
+      <c r="AO16" s="45"/>
+      <c r="AP16" s="45"/>
+      <c r="AQ16" s="45"/>
+      <c r="AR16" s="45"/>
+      <c r="AS16" s="45"/>
+      <c r="AT16" s="45"/>
+      <c r="AU16" s="45"/>
+      <c r="AV16" s="45"/>
+      <c r="AW16" s="45"/>
+      <c r="AX16" s="45"/>
+      <c r="AY16" s="45"/>
+      <c r="AZ16" s="45"/>
+      <c r="BA16" s="45"/>
+      <c r="BB16" s="38"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A17" s="37">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="41"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="45"/>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="38"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A18" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="48"/>
-      <c r="AC18" s="48"/>
-      <c r="AD18" s="48"/>
-      <c r="AE18" s="48"/>
-      <c r="AF18" s="48"/>
-      <c r="AG18" s="48"/>
-      <c r="AH18" s="48"/>
-      <c r="AI18" s="48"/>
-      <c r="AJ18" s="48"/>
-      <c r="AK18" s="48"/>
-      <c r="AL18" s="48"/>
-      <c r="AM18" s="48"/>
-      <c r="AN18" s="48"/>
-      <c r="AO18" s="48"/>
-      <c r="AP18" s="48"/>
-      <c r="AQ18" s="48"/>
-      <c r="AR18" s="48"/>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="48"/>
-      <c r="AU18" s="48"/>
-      <c r="AV18" s="48"/>
-      <c r="AW18" s="48"/>
-      <c r="AX18" s="48"/>
-      <c r="AY18" s="48"/>
-      <c r="AZ18" s="48"/>
-      <c r="BA18" s="48"/>
-      <c r="BB18" s="41"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="45"/>
+      <c r="AY18" s="45"/>
+      <c r="AZ18" s="45"/>
+      <c r="BA18" s="45"/>
+      <c r="BB18" s="38"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A19" s="37">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="41"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="38"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A20" s="37">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="48"/>
-      <c r="AG20" s="48"/>
-      <c r="AH20" s="48"/>
-      <c r="AI20" s="48"/>
-      <c r="AJ20" s="48"/>
-      <c r="AK20" s="48"/>
-      <c r="AL20" s="48"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="48"/>
-      <c r="AO20" s="48"/>
-      <c r="AP20" s="48"/>
-      <c r="AQ20" s="48"/>
-      <c r="AR20" s="48"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="48"/>
-      <c r="AU20" s="48"/>
-      <c r="AV20" s="48"/>
-      <c r="AW20" s="48"/>
-      <c r="AX20" s="48"/>
-      <c r="AY20" s="48"/>
-      <c r="AZ20" s="48"/>
-      <c r="BA20" s="48"/>
-      <c r="BB20" s="41"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="45"/>
+      <c r="AX20" s="45"/>
+      <c r="AY20" s="45"/>
+      <c r="AZ20" s="45"/>
+      <c r="BA20" s="45"/>
+      <c r="BB20" s="38"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A21" s="37">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
-      <c r="AG21" s="48"/>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="48"/>
-      <c r="AK21" s="48"/>
-      <c r="AL21" s="48"/>
-      <c r="AM21" s="48"/>
-      <c r="AN21" s="48"/>
-      <c r="AO21" s="48"/>
-      <c r="AP21" s="48"/>
-      <c r="AQ21" s="48"/>
-      <c r="AR21" s="48"/>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="48"/>
-      <c r="AU21" s="48"/>
-      <c r="AV21" s="48"/>
-      <c r="AW21" s="48"/>
-      <c r="AX21" s="48"/>
-      <c r="AY21" s="48"/>
-      <c r="AZ21" s="48"/>
-      <c r="BA21" s="48"/>
-      <c r="BB21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="37"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+      <c r="AM21" s="45"/>
+      <c r="AN21" s="45"/>
+      <c r="AO21" s="45"/>
+      <c r="AP21" s="45"/>
+      <c r="AQ21" s="45"/>
+      <c r="AR21" s="45"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="45"/>
+      <c r="AU21" s="45"/>
+      <c r="AV21" s="45"/>
+      <c r="AW21" s="45"/>
+      <c r="AX21" s="45"/>
+      <c r="AY21" s="45"/>
+      <c r="AZ21" s="45"/>
+      <c r="BA21" s="45"/>
+      <c r="BB21" s="38"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
+      <c r="A22" s="37">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
-      <c r="AH22" s="48"/>
-      <c r="AI22" s="48"/>
-      <c r="AJ22" s="48"/>
-      <c r="AK22" s="48"/>
-      <c r="AL22" s="48"/>
-      <c r="AM22" s="48"/>
-      <c r="AN22" s="48"/>
-      <c r="AO22" s="48"/>
-      <c r="AP22" s="48"/>
-      <c r="AQ22" s="48"/>
-      <c r="AR22" s="48"/>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="48"/>
-      <c r="AU22" s="48"/>
-      <c r="AV22" s="48"/>
-      <c r="AW22" s="48"/>
-      <c r="AX22" s="48"/>
-      <c r="AY22" s="48"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="41"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
+      <c r="AQ22" s="45"/>
+      <c r="AR22" s="45"/>
+      <c r="AS22" s="45"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="45"/>
+      <c r="AV22" s="45"/>
+      <c r="AW22" s="45"/>
+      <c r="AX22" s="45"/>
+      <c r="AY22" s="45"/>
+      <c r="AZ22" s="45"/>
+      <c r="BA22" s="45"/>
+      <c r="BB22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -3780,96 +3870,6 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,15 +3878,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -4081,6 +4072,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4093,14 +4093,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1B57F6-6115-4225-8541-8A02A498EE84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4115,6 +4107,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F62CBE3-EF1B-4CA5-987C-B2C4D700F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250086DC-7433-4F72-9DE0-7D8FBE4BE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="56">
   <si>
     <t>CURD図</t>
     <rPh sb="4" eb="5">
@@ -393,57 +393,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>吉新</t>
-    <rPh sb="0" eb="2">
-      <t>ヨシアラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>勤怠状況詳細画面,打刻テーブルのCRUD</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ダコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Cを追加しました。（打刻データがないときに変更申請を行う場合に打刻データを追加するため）</t>
-    <rPh sb="2" eb="4">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ヘンコウシンセイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -455,7 +404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,14 +452,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -780,9 +721,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,14 +784,44 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -858,72 +829,36 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1323,22 +1258,22 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="1"/>
-    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="1"/>
+    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.69921875" style="1" customWidth="1"/>
-    <col min="16" max="23" width="3.69921875" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="39" width="3.69921875" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="2.69921875" style="1"/>
+    <col min="12" max="15" width="3.75" style="1" customWidth="1"/>
+    <col min="16" max="23" width="3.75" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="39" width="3.75" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="22.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:60" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1337,7 @@
       <c r="BG1" s="15"/>
       <c r="BH1" s="15"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1418,45 +1353,45 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="25" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="28" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31" t="s">
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="28">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="27">
         <f ca="1">NOW()</f>
-        <v>45450.389105555558</v>
-      </c>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="30"/>
+        <v>45450.634732060185</v>
+      </c>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="29"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1472,109 +1407,109 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="25" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="25" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="36"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="26"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23" t="s">
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23" t="s">
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24" t="s">
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="23" t="s">
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23" t="s">
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23" t="s">
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="33"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1774,11 +1709,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1874,11 +1809,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1974,11 +1909,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2074,7 +2009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2174,11 +2109,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2271,11 +2206,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2371,12 +2306,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2384,7 +2319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2392,29 +2327,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AL3:AR3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="T3:Z3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="L2:O2"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="AJ6:AM6"/>
     <mergeCell ref="AF6:AI6"/>
@@ -2424,6 +2348,17 @@
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="L6:O6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AL3:AR3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="T3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2437,1424 +2372,1326 @@
   <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:Z4"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="2.69921875" style="15"/>
+    <col min="1" max="16384" width="2.75" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="46" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="46" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
-      <c r="BB2" s="47"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="36"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39">
-        <v>45447</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40">
+        <v>45450</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="37" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
-      <c r="BB3" s="38"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="39"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A4" s="37">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39">
-        <v>45449</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="45"/>
-      <c r="AI4" s="45"/>
-      <c r="AJ4" s="45"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="45"/>
-      <c r="AU4" s="45"/>
-      <c r="AV4" s="45"/>
-      <c r="AW4" s="45"/>
-      <c r="AX4" s="45"/>
-      <c r="AY4" s="45"/>
-      <c r="AZ4" s="45"/>
-      <c r="BA4" s="45"/>
-      <c r="BB4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="39"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="45"/>
-      <c r="AG5" s="45"/>
-      <c r="AH5" s="45"/>
-      <c r="AI5" s="45"/>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="45"/>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="45"/>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="45"/>
-      <c r="AT5" s="45"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="45"/>
-      <c r="AW5" s="45"/>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="45"/>
-      <c r="BB5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="46"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="46"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="39"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A6" s="37">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="45"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="45"/>
-      <c r="AG6" s="45"/>
-      <c r="AH6" s="45"/>
-      <c r="AI6" s="45"/>
-      <c r="AJ6" s="45"/>
-      <c r="AK6" s="45"/>
-      <c r="AL6" s="45"/>
-      <c r="AM6" s="45"/>
-      <c r="AN6" s="45"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="45"/>
-      <c r="AQ6" s="45"/>
-      <c r="AR6" s="45"/>
-      <c r="AS6" s="45"/>
-      <c r="AT6" s="45"/>
-      <c r="AU6" s="45"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="45"/>
-      <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="46"/>
+      <c r="AK6" s="46"/>
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AO6" s="46"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="46"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="46"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="39"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A7" s="37">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45"/>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45"/>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45"/>
-      <c r="AY7" s="45"/>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="46"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="46"/>
+      <c r="AK7" s="46"/>
+      <c r="AL7" s="46"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AO7" s="46"/>
+      <c r="AP7" s="46"/>
+      <c r="AQ7" s="46"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AT7" s="46"/>
+      <c r="AU7" s="46"/>
+      <c r="AV7" s="46"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="46"/>
+      <c r="AZ7" s="46"/>
+      <c r="BA7" s="46"/>
+      <c r="BB7" s="39"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A8" s="37">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="46"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AJ8" s="46"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="46"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AO8" s="46"/>
+      <c r="AP8" s="46"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AT8" s="46"/>
+      <c r="AU8" s="46"/>
+      <c r="AV8" s="46"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="46"/>
+      <c r="AZ8" s="46"/>
+      <c r="BA8" s="46"/>
+      <c r="BB8" s="39"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A9" s="37">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="46"/>
+      <c r="AK9" s="46"/>
+      <c r="AL9" s="46"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AO9" s="46"/>
+      <c r="AP9" s="46"/>
+      <c r="AQ9" s="46"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AT9" s="46"/>
+      <c r="AU9" s="46"/>
+      <c r="AV9" s="46"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="46"/>
+      <c r="AZ9" s="46"/>
+      <c r="BA9" s="46"/>
+      <c r="BB9" s="39"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A10" s="37">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="45"/>
-      <c r="BB10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="46"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AJ10" s="46"/>
+      <c r="AK10" s="46"/>
+      <c r="AL10" s="46"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AT10" s="46"/>
+      <c r="AU10" s="46"/>
+      <c r="AV10" s="46"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="46"/>
+      <c r="AZ10" s="46"/>
+      <c r="BA10" s="46"/>
+      <c r="BB10" s="39"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A11" s="37">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="46"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="46"/>
+      <c r="AK11" s="46"/>
+      <c r="AL11" s="46"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46"/>
+      <c r="AP11" s="46"/>
+      <c r="AQ11" s="46"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AT11" s="46"/>
+      <c r="AU11" s="46"/>
+      <c r="AV11" s="46"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="46"/>
+      <c r="AZ11" s="46"/>
+      <c r="BA11" s="46"/>
+      <c r="BB11" s="39"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A12" s="37">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
-      <c r="AP12" s="45"/>
-      <c r="AQ12" s="45"/>
-      <c r="AR12" s="45"/>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
-      <c r="BB12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="46"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="46"/>
+      <c r="AP12" s="46"/>
+      <c r="AQ12" s="46"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AT12" s="46"/>
+      <c r="AU12" s="46"/>
+      <c r="AV12" s="46"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="46"/>
+      <c r="AZ12" s="46"/>
+      <c r="BA12" s="46"/>
+      <c r="BB12" s="39"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A13" s="37">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="45"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="45"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
-      <c r="AX13" s="45"/>
-      <c r="AY13" s="45"/>
-      <c r="AZ13" s="45"/>
-      <c r="BA13" s="45"/>
-      <c r="BB13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AO13" s="46"/>
+      <c r="AP13" s="46"/>
+      <c r="AQ13" s="46"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AT13" s="46"/>
+      <c r="AU13" s="46"/>
+      <c r="AV13" s="46"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="46"/>
+      <c r="AZ13" s="46"/>
+      <c r="BA13" s="46"/>
+      <c r="BB13" s="39"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A14" s="37">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
-      <c r="BB14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AJ14" s="46"/>
+      <c r="AK14" s="46"/>
+      <c r="AL14" s="46"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
+      <c r="AQ14" s="46"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AT14" s="46"/>
+      <c r="AU14" s="46"/>
+      <c r="AV14" s="46"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="46"/>
+      <c r="AZ14" s="46"/>
+      <c r="BA14" s="46"/>
+      <c r="BB14" s="39"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A15" s="37">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
-      <c r="AX15" s="45"/>
-      <c r="AY15" s="45"/>
-      <c r="AZ15" s="45"/>
-      <c r="BA15" s="45"/>
-      <c r="BB15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="46"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AJ15" s="46"/>
+      <c r="AK15" s="46"/>
+      <c r="AL15" s="46"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AO15" s="46"/>
+      <c r="AP15" s="46"/>
+      <c r="AQ15" s="46"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AT15" s="46"/>
+      <c r="AU15" s="46"/>
+      <c r="AV15" s="46"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="46"/>
+      <c r="AZ15" s="46"/>
+      <c r="BA15" s="46"/>
+      <c r="BB15" s="39"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A16" s="37">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="45"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="45"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
-      <c r="AX16" s="45"/>
-      <c r="AY16" s="45"/>
-      <c r="AZ16" s="45"/>
-      <c r="BA16" s="45"/>
-      <c r="BB16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AJ16" s="46"/>
+      <c r="AK16" s="46"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="46"/>
+      <c r="AQ16" s="46"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AT16" s="46"/>
+      <c r="AU16" s="46"/>
+      <c r="AV16" s="46"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="46"/>
+      <c r="AZ16" s="46"/>
+      <c r="BA16" s="46"/>
+      <c r="BB16" s="39"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A17" s="37">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="45"/>
-      <c r="AK17" s="45"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
+      <c r="AJ17" s="46"/>
+      <c r="AK17" s="46"/>
+      <c r="AL17" s="46"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="46"/>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
+      <c r="AT17" s="46"/>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
+      <c r="AY17" s="46"/>
+      <c r="AZ17" s="46"/>
+      <c r="BA17" s="46"/>
+      <c r="BB17" s="39"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A18" s="37">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="45"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="45"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
-      <c r="AX18" s="45"/>
-      <c r="AY18" s="45"/>
-      <c r="AZ18" s="45"/>
-      <c r="BA18" s="45"/>
-      <c r="BB18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="46"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="46"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="46"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="46"/>
+      <c r="AI18" s="46"/>
+      <c r="AJ18" s="46"/>
+      <c r="AK18" s="46"/>
+      <c r="AL18" s="46"/>
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="46"/>
+      <c r="AQ18" s="46"/>
+      <c r="AR18" s="46"/>
+      <c r="AS18" s="46"/>
+      <c r="AT18" s="46"/>
+      <c r="AU18" s="46"/>
+      <c r="AV18" s="46"/>
+      <c r="AW18" s="46"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="46"/>
+      <c r="AZ18" s="46"/>
+      <c r="BA18" s="46"/>
+      <c r="BB18" s="39"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A19" s="37">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="45"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
+      <c r="AY19" s="46"/>
+      <c r="AZ19" s="46"/>
+      <c r="BA19" s="46"/>
+      <c r="BB19" s="39"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A20" s="37">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
-      <c r="AX20" s="45"/>
-      <c r="AY20" s="45"/>
-      <c r="AZ20" s="45"/>
-      <c r="BA20" s="45"/>
-      <c r="BB20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="46"/>
+      <c r="AK20" s="46"/>
+      <c r="AL20" s="46"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="46"/>
+      <c r="AQ20" s="46"/>
+      <c r="AR20" s="46"/>
+      <c r="AS20" s="46"/>
+      <c r="AT20" s="46"/>
+      <c r="AU20" s="46"/>
+      <c r="AV20" s="46"/>
+      <c r="AW20" s="46"/>
+      <c r="AX20" s="46"/>
+      <c r="AY20" s="46"/>
+      <c r="AZ20" s="46"/>
+      <c r="BA20" s="46"/>
+      <c r="BB20" s="39"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A21" s="37">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="45"/>
-      <c r="AK21" s="45"/>
-      <c r="AL21" s="45"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="45"/>
-      <c r="AY21" s="45"/>
-      <c r="AZ21" s="45"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="46"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="46"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="46"/>
+      <c r="AI21" s="46"/>
+      <c r="AJ21" s="46"/>
+      <c r="AK21" s="46"/>
+      <c r="AL21" s="46"/>
+      <c r="AM21" s="46"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="46"/>
+      <c r="AQ21" s="46"/>
+      <c r="AR21" s="46"/>
+      <c r="AS21" s="46"/>
+      <c r="AT21" s="46"/>
+      <c r="AU21" s="46"/>
+      <c r="AV21" s="46"/>
+      <c r="AW21" s="46"/>
+      <c r="AX21" s="46"/>
+      <c r="AY21" s="46"/>
+      <c r="AZ21" s="46"/>
+      <c r="BA21" s="46"/>
+      <c r="BB21" s="39"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
-      <c r="A22" s="37">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="45"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="45"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="45"/>
-      <c r="AY22" s="45"/>
-      <c r="AZ22" s="45"/>
-      <c r="BA22" s="45"/>
-      <c r="BB22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
+      <c r="AI22" s="46"/>
+      <c r="AJ22" s="46"/>
+      <c r="AK22" s="46"/>
+      <c r="AL22" s="46"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="46"/>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="46"/>
+      <c r="AT22" s="46"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="46"/>
+      <c r="AW22" s="46"/>
+      <c r="AX22" s="46"/>
+      <c r="AY22" s="46"/>
+      <c r="AZ22" s="46"/>
+      <c r="BA22" s="46"/>
+      <c r="BB22" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:Z2"/>
-    <mergeCell ref="AA2:BB2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:Z3"/>
-    <mergeCell ref="AA3:BB3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Z4"/>
-    <mergeCell ref="AA4:BB4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:Z5"/>
-    <mergeCell ref="AA5:BB5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:Z6"/>
-    <mergeCell ref="AA6:BB6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:Z7"/>
-    <mergeCell ref="AA7:BB7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:Z8"/>
-    <mergeCell ref="AA8:BB8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:Z9"/>
-    <mergeCell ref="AA9:BB9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:Z10"/>
-    <mergeCell ref="AA10:BB10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:Z11"/>
-    <mergeCell ref="AA11:BB11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:Z12"/>
-    <mergeCell ref="AA12:BB12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="AA13:BB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:Z14"/>
-    <mergeCell ref="AA14:BB14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:Z15"/>
-    <mergeCell ref="AA15:BB15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:Z16"/>
-    <mergeCell ref="AA16:BB16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="AA17:BB17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:Z18"/>
-    <mergeCell ref="AA18:BB18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:Z19"/>
-    <mergeCell ref="AA19:BB19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:M22"/>
@@ -3870,6 +3707,96 @@
     <mergeCell ref="H21:M21"/>
     <mergeCell ref="N21:Z21"/>
     <mergeCell ref="AA21:BB21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:Z18"/>
+    <mergeCell ref="AA18:BB18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:Z19"/>
+    <mergeCell ref="AA19:BB19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:Z16"/>
+    <mergeCell ref="AA16:BB16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="AA17:BB17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:Z14"/>
+    <mergeCell ref="AA14:BB14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:Z15"/>
+    <mergeCell ref="AA15:BB15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:Z12"/>
+    <mergeCell ref="AA12:BB12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="AA13:BB13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:Z10"/>
+    <mergeCell ref="AA10:BB10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:Z11"/>
+    <mergeCell ref="AA11:BB11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:Z8"/>
+    <mergeCell ref="AA8:BB8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:Z9"/>
+    <mergeCell ref="AA9:BB9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:Z6"/>
+    <mergeCell ref="AA6:BB6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:Z7"/>
+    <mergeCell ref="AA7:BB7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Z4"/>
+    <mergeCell ref="AA4:BB4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:Z5"/>
+    <mergeCell ref="AA5:BB5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:Z2"/>
+    <mergeCell ref="AA2:BB2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:Z3"/>
+    <mergeCell ref="AA3:BB3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3878,6 +3805,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F3BD9A264D891E42A87CAED8E149BEE6" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="ca7c401e516c40050d0899be8bcf9780">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13" xmlns:ns3="675b6bc6-fb4a-4724-a080-4fd9de868aa1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66b658899a6e9f32da36e2c4c1c4c8de" ns2:_="" ns3:_="">
     <xsd:import namespace="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
@@ -4072,27 +4019,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA9362C-0B08-4DFC-B8A5-D5DDB09C5A25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="675b6bc6-fb4a-4724-a080-4fd9de868aa1" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE1B57F6-6115-4225-8541-8A02A498EE84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4109,29 +4061,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{444A1C34-B327-4875-B5D0-CEFAC121A0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEA9362C-0B08-4DFC-B8A5-D5DDB09C5A25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="675b6bc6-fb4a-4724-a080-4fd9de868aa1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3ff13a7f-b95e-409b-bbf6-a7f2c158cf13"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
+++ b/設計書_打刻侍/30_詳細設計/01_テーブル設計書/CRUD図.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\30_詳細設計\01_テーブル設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250086DC-7433-4F72-9DE0-7D8FBE4BE0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4D6446-6BDD-4D5C-B749-D2642A8A6D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19F90CCC-F67A-4B70-9107-B3E5FF5B0EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="CRUD図" sheetId="2" r:id="rId1"/>
@@ -1258,22 +1258,22 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="1"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="1"/>
+    <col min="2" max="2" width="6.69921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="4" style="1" customWidth="1"/>
-    <col min="12" max="15" width="3.75" style="1" customWidth="1"/>
-    <col min="16" max="23" width="3.75" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="39" width="3.75" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="2.75" style="1"/>
+    <col min="12" max="15" width="3.69921875" style="1" customWidth="1"/>
+    <col min="16" max="23" width="3.69921875" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="39" width="3.69921875" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="2.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:60" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="BG1" s="15"/>
       <c r="BH1" s="15"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="AD2" s="32"/>
       <c r="AE2" s="27">
         <f ca="1">NOW()</f>
-        <v>45450.634732060185</v>
+        <v>45453.687710648148</v>
       </c>
       <c r="AF2" s="28"/>
       <c r="AG2" s="28"/>
@@ -1391,7 +1391,7 @@
       <c r="AJ2" s="28"/>
       <c r="AK2" s="29"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="AQ3" s="25"/>
       <c r="AR3" s="26"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
@@ -1978,8 +1978,8 @@
       <c r="AC11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AD11" s="6" t="s">
-        <v>30</v>
+      <c r="AD11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AE11" s="4" t="s">
         <v>22</v>
@@ -1990,8 +1990,8 @@
       <c r="AG11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH11" s="6" t="s">
-        <v>30</v>
+      <c r="AH11" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="AI11" s="4" t="s">
         <v>22</v>
@@ -2009,7 +2009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>37</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -2306,12 +2306,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,12 +2327,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2375,12 +2375,12 @@
       <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="2.75" style="15"/>
+    <col min="1" max="16384" width="2.69921875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:54" ht="22.2" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="BA1" s="20"/>
       <c r="BB1" s="20"/>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>50</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="BA2" s="37"/>
       <c r="BB2" s="36"/>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <f>ROW()-2</f>
         <v>1</v>
@@ -2569,7 +2569,7 @@
       <c r="BA3" s="46"/>
       <c r="BB3" s="39"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <f t="shared" ref="A4:A22" si="0">ROW()-2</f>
         <v>2</v>
@@ -2628,7 +2628,7 @@
       <c r="BA4" s="46"/>
       <c r="BB4" s="39"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2687,7 +2687,7 @@
       <c r="BA5" s="46"/>
       <c r="BB5" s="39"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2746,7 +2746,7 @@
       <c r="BA6" s="46"/>
       <c r="BB6" s="39"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2805,7 +2805,7 @@
       <c r="BA7" s="46"/>
       <c r="BB7" s="39"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2864,7 +2864,7 @@
       <c r="BA8" s="46"/>
       <c r="BB8" s="39"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" s="38">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2923,7 +2923,7 @@
       <c r="BA9" s="46"/>
       <c r="BB9" s="39"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2982,7 +2982,7 @@
       <c r="BA10" s="46"/>
       <c r="BB10" s="39"/>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" s="38">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3041,7 +3041,7 @@
       <c r="BA11" s="46"/>
       <c r="BB11" s="39"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3100,7 +3100,7 @@
       <c r="BA12" s="46"/>
       <c r="BB12" s="39"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3159,7 +3159,7 @@
       <c r="BA13" s="46"/>
       <c r="BB13" s="39"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" s="38">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3218,7 +3218,7 @@
       <c r="BA14" s="46"/>
       <c r="BB14" s="39"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" s="38">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3277,7 +3277,7 @@
       <c r="BA15" s="46"/>
       <c r="BB15" s="39"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3336,7 +3336,7 @@
       <c r="BA16" s="46"/>
       <c r="BB16" s="39"/>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3395,7 +3395,7 @@
       <c r="BA17" s="46"/>
       <c r="BB17" s="39"/>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3454,7 +3454,7 @@
       <c r="BA18" s="46"/>
       <c r="BB18" s="39"/>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3513,7 +3513,7 @@
       <c r="BA19" s="46"/>
       <c r="BB19" s="39"/>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" s="38">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3572,7 +3572,7 @@
       <c r="BA20" s="46"/>
       <c r="BB20" s="39"/>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" s="38">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3631,7 +3631,7 @@
       <c r="BA21" s="46"/>
       <c r="BB21" s="39"/>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="0"/>
         <v>20</v>
